--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H2">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I2">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J2">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N2">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O2">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P2">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q2">
-        <v>54.06173085994351</v>
+        <v>85.04507943533</v>
       </c>
       <c r="R2">
-        <v>216.246923439774</v>
+        <v>340.18031774132</v>
       </c>
       <c r="S2">
-        <v>0.07593469605314075</v>
+        <v>0.04564037999181422</v>
       </c>
       <c r="T2">
-        <v>0.05090060181477156</v>
+        <v>0.02844485653672972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H3">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I3">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J3">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>1.096305</v>
       </c>
       <c r="O3">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P3">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q3">
-        <v>5.577655052077501</v>
+        <v>7.3045806339625</v>
       </c>
       <c r="R3">
-        <v>33.46593031246501</v>
+        <v>43.827483803775</v>
       </c>
       <c r="S3">
-        <v>0.007834331870838896</v>
+        <v>0.003920083772376361</v>
       </c>
       <c r="T3">
-        <v>0.007877272731096641</v>
+        <v>0.003664722572551112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H4">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I4">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J4">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N4">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O4">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P4">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q4">
-        <v>9.537548219607004</v>
+        <v>11.66823311666833</v>
       </c>
       <c r="R4">
-        <v>57.22528931764202</v>
+        <v>70.00939870001</v>
       </c>
       <c r="S4">
-        <v>0.01339636770092101</v>
+        <v>0.006261886011674193</v>
       </c>
       <c r="T4">
-        <v>0.01346979470948926</v>
+        <v>0.005853975666395852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H5">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I5">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J5">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N5">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O5">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P5">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q5">
-        <v>40.36360317441675</v>
+        <v>65.7277533033275</v>
       </c>
       <c r="R5">
-        <v>161.454412697667</v>
+        <v>262.91101321331</v>
       </c>
       <c r="S5">
-        <v>0.05669441007353878</v>
+        <v>0.03527352383806318</v>
       </c>
       <c r="T5">
-        <v>0.03800343903736757</v>
+        <v>0.02198382934801546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H6">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I6">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J6">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N6">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O6">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P6">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q6">
-        <v>51.18644575036051</v>
+        <v>310.3822221643325</v>
       </c>
       <c r="R6">
-        <v>307.1186745021631</v>
+        <v>1862.293332985995</v>
       </c>
       <c r="S6">
-        <v>0.07189609245334223</v>
+        <v>0.166570043279881</v>
       </c>
       <c r="T6">
-        <v>0.07229016307863813</v>
+        <v>0.1557193756470542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H7">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I7">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J7">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N7">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O7">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P7">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q7">
-        <v>5.7724218283885</v>
+        <v>5.700411960086667</v>
       </c>
       <c r="R7">
-        <v>34.63453097033101</v>
+        <v>34.20247176052001</v>
       </c>
       <c r="S7">
-        <v>0.008107899803740281</v>
+        <v>0.003059188958322695</v>
       </c>
       <c r="T7">
-        <v>0.008152340120821069</v>
+        <v>0.002859907971422797</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>20.97942</v>
       </c>
       <c r="I8">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J8">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N8">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O8">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P8">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q8">
-        <v>24.76969488686</v>
+        <v>29.75337708728</v>
       </c>
       <c r="R8">
-        <v>148.61816932116</v>
+        <v>178.52026252368</v>
       </c>
       <c r="S8">
-        <v>0.0347913250767997</v>
+        <v>0.01596747801659489</v>
       </c>
       <c r="T8">
-        <v>0.03498202026982127</v>
+        <v>0.01492732821846208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>20.97942</v>
       </c>
       <c r="I9">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J9">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>1.096305</v>
       </c>
       <c r="O9">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P9">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q9">
         <v>2.5555381159</v>
@@ -1013,10 +1013,10 @@
         <v>22.9998430431</v>
       </c>
       <c r="S9">
-        <v>0.003589489403989188</v>
+        <v>0.001371457719454929</v>
       </c>
       <c r="T9">
-        <v>0.005413745702907653</v>
+        <v>0.00192317780191436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>20.97942</v>
       </c>
       <c r="I10">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J10">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N10">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O10">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P10">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q10">
-        <v>4.369859336920001</v>
+        <v>4.082180205693333</v>
       </c>
       <c r="R10">
-        <v>39.32873403228</v>
+        <v>36.73962185124</v>
       </c>
       <c r="S10">
-        <v>0.006137871194017968</v>
+        <v>0.002190747036982683</v>
       </c>
       <c r="T10">
-        <v>0.009257270341761268</v>
+        <v>0.003072056842415267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>20.97942</v>
       </c>
       <c r="I11">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J11">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N11">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O11">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P11">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q11">
-        <v>18.49356502763</v>
+        <v>22.99512966674</v>
       </c>
       <c r="R11">
-        <v>110.96139016578</v>
+        <v>137.97077800044</v>
       </c>
       <c r="S11">
-        <v>0.02597592080339</v>
+        <v>0.01234058998967859</v>
       </c>
       <c r="T11">
-        <v>0.02611829776720442</v>
+        <v>0.01153670210123037</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>20.97942</v>
       </c>
       <c r="I12">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J12">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N12">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O12">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P12">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q12">
-        <v>23.45231318738</v>
+        <v>108.58851985982</v>
       </c>
       <c r="R12">
-        <v>211.07081868642</v>
+        <v>977.2966787383798</v>
       </c>
       <c r="S12">
-        <v>0.03294094075974662</v>
+        <v>0.05827522699793006</v>
       </c>
       <c r="T12">
-        <v>0.049682240680143</v>
+        <v>0.08171861324932567</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>20.97942</v>
       </c>
       <c r="I13">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J13">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N13">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O13">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P13">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q13">
-        <v>2.644775244393333</v>
+        <v>1.994312989386667</v>
       </c>
       <c r="R13">
-        <v>23.80297719954</v>
+        <v>17.94881690448</v>
       </c>
       <c r="S13">
-        <v>0.003714831196066679</v>
+        <v>0.001070270064565379</v>
       </c>
       <c r="T13">
-        <v>0.005602788909860746</v>
+        <v>0.001500826165493197</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H14">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I14">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J14">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N14">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O14">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P14">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q14">
-        <v>28.42296814677767</v>
+        <v>19.222168854536</v>
       </c>
       <c r="R14">
-        <v>170.537808880666</v>
+        <v>115.333013127216</v>
       </c>
       <c r="S14">
-        <v>0.03992268491634304</v>
+        <v>0.01031578895114045</v>
       </c>
       <c r="T14">
-        <v>0.04014150567379496</v>
+        <v>0.009643800188484399</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H15">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I15">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J15">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>1.096305</v>
       </c>
       <c r="O15">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P15">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q15">
-        <v>2.932453500048333</v>
+        <v>1.65100536433</v>
       </c>
       <c r="R15">
-        <v>26.392081500435</v>
+        <v>14.85904827897</v>
       </c>
       <c r="S15">
-        <v>0.004118901886308782</v>
+        <v>0.0008860302406307289</v>
       </c>
       <c r="T15">
-        <v>0.006212217081047989</v>
+        <v>0.001242468992250881</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H16">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I16">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J16">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N16">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O16">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P16">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q16">
-        <v>5.014368295875334</v>
+        <v>2.637292465265333</v>
       </c>
       <c r="R16">
-        <v>45.12931466287801</v>
+        <v>23.735632187388</v>
       </c>
       <c r="S16">
-        <v>0.007043143576594632</v>
+        <v>0.001415332092855388</v>
       </c>
       <c r="T16">
-        <v>0.01062262176630894</v>
+        <v>0.001984702280430694</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H17">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I17">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J17">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N17">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O17">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P17">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q17">
-        <v>21.22117418489217</v>
+        <v>14.856003202238</v>
       </c>
       <c r="R17">
-        <v>127.327045109353</v>
+        <v>89.136019213428</v>
       </c>
       <c r="S17">
-        <v>0.02980709988356128</v>
+        <v>0.007972637991658786</v>
       </c>
       <c r="T17">
-        <v>0.02997047597381257</v>
+        <v>0.007453286232477327</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H18">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I18">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J18">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N18">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O18">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P18">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q18">
-        <v>26.91128630117967</v>
+        <v>70.15361174923399</v>
       </c>
       <c r="R18">
-        <v>242.201576710617</v>
+        <v>631.382505743106</v>
       </c>
       <c r="S18">
-        <v>0.03779938809160917</v>
+        <v>0.03764870959369242</v>
       </c>
       <c r="T18">
-        <v>0.05700985622803758</v>
+        <v>0.05279430895622952</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H19">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I19">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J19">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N19">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O19">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P19">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q19">
-        <v>3.034852180058778</v>
+        <v>1.288425879130667</v>
       </c>
       <c r="R19">
-        <v>27.313669620529</v>
+        <v>11.595832912176</v>
       </c>
       <c r="S19">
-        <v>0.004262730293560115</v>
+        <v>0.0006914479603670295</v>
       </c>
       <c r="T19">
-        <v>0.006429142201609036</v>
+        <v>0.0009696087233993164</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H20">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I20">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J20">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N20">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O20">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P20">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q20">
-        <v>72.44007804825</v>
+        <v>115.165556406474</v>
       </c>
       <c r="R20">
-        <v>289.760312193</v>
+        <v>460.662225625896</v>
       </c>
       <c r="S20">
-        <v>0.1017487827555917</v>
+        <v>0.0618048662104797</v>
       </c>
       <c r="T20">
-        <v>0.06820431957159133</v>
+        <v>0.03851919184161435</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H21">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I21">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J21">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>1.096305</v>
       </c>
       <c r="O21">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P21">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q21">
-        <v>7.473785261250001</v>
+        <v>9.891649212532501</v>
       </c>
       <c r="R21">
-        <v>44.8427115675</v>
+        <v>59.349895275195</v>
       </c>
       <c r="S21">
-        <v>0.01049762194350977</v>
+        <v>0.005308462662428478</v>
       </c>
       <c r="T21">
-        <v>0.01055516059828552</v>
+        <v>0.004962660002735948</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H22">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I22">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J22">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N22">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O22">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P22">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q22">
-        <v>12.7798486365</v>
+        <v>15.800779634563</v>
       </c>
       <c r="R22">
-        <v>76.67909181900002</v>
+        <v>94.804677807378</v>
       </c>
       <c r="S22">
-        <v>0.01795047821039719</v>
+        <v>0.008479662685679007</v>
       </c>
       <c r="T22">
-        <v>0.01804886681444159</v>
+        <v>0.00792728243993346</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H23">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I23">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J23">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N23">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O23">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P23">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q23">
-        <v>54.085256201625</v>
+        <v>89.00659898002951</v>
       </c>
       <c r="R23">
-        <v>216.3410248065</v>
+        <v>356.026395920118</v>
       </c>
       <c r="S23">
-        <v>0.07596773956916798</v>
+        <v>0.04776637315409438</v>
       </c>
       <c r="T23">
-        <v>0.05092275156895883</v>
+        <v>0.02976985800494654</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H24">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I24">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J24">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N24">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O24">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P24">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q24">
-        <v>68.58733647975001</v>
+        <v>420.3105170995184</v>
       </c>
       <c r="R24">
-        <v>411.5240188785</v>
+        <v>2521.863102597111</v>
       </c>
       <c r="S24">
-        <v>0.09633725124667146</v>
+        <v>0.2255642753507591</v>
       </c>
       <c r="T24">
-        <v>0.09686528663138588</v>
+        <v>0.2108706189556649</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H25">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I25">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J25">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N25">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O25">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P25">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q25">
-        <v>7.73476322575</v>
+        <v>7.719330965276001</v>
       </c>
       <c r="R25">
-        <v>46.4085793545</v>
+        <v>46.315985791656</v>
       </c>
       <c r="S25">
-        <v>0.01086418960783807</v>
+        <v>0.004142664112691915</v>
       </c>
       <c r="T25">
-        <v>0.01092373746149746</v>
+        <v>0.003872803635284638</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H26">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I26">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J26">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N26">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O26">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P26">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q26">
-        <v>44.126715879861</v>
+        <v>23.55299330750934</v>
       </c>
       <c r="R26">
-        <v>264.760295279166</v>
+        <v>141.317959845056</v>
       </c>
       <c r="S26">
-        <v>0.06198004956299408</v>
+        <v>0.01263997366616384</v>
       </c>
       <c r="T26">
-        <v>0.06231976923417105</v>
+        <v>0.01181658339478848</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H27">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I27">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J27">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>1.096305</v>
       </c>
       <c r="O27">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P27">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q27">
-        <v>4.552640025465</v>
+        <v>2.022982868946667</v>
       </c>
       <c r="R27">
-        <v>40.973760229185</v>
+        <v>18.20684582052</v>
       </c>
       <c r="S27">
-        <v>0.006394603559191502</v>
+        <v>0.001085656071682146</v>
       </c>
       <c r="T27">
-        <v>0.009644479658276006</v>
+        <v>0.001522401768537542</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H28">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I28">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J28">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N28">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O28">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P28">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q28">
-        <v>7.784816982042003</v>
+        <v>3.231484035667556</v>
       </c>
       <c r="R28">
-        <v>70.06335283837801</v>
+        <v>29.083356321008</v>
       </c>
       <c r="S28">
-        <v>0.01093449473329174</v>
+        <v>0.001734211553503222</v>
       </c>
       <c r="T28">
-        <v>0.01649164190595918</v>
+        <v>0.002431862912147487</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H29">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I29">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J29">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N29">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O29">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P29">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q29">
-        <v>32.9459161006005</v>
+        <v>18.20311467694134</v>
       </c>
       <c r="R29">
-        <v>197.675496603603</v>
+        <v>109.218688061648</v>
       </c>
       <c r="S29">
-        <v>0.04627558321749948</v>
+        <v>0.009768902285780427</v>
       </c>
       <c r="T29">
-        <v>0.04652922493003464</v>
+        <v>0.0091325386891014</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H30">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I30">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J30">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N30">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O30">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P30">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q30">
-        <v>41.77982673876301</v>
+        <v>85.95947525647733</v>
       </c>
       <c r="R30">
-        <v>376.0184406488671</v>
+        <v>773.6352773082959</v>
       </c>
       <c r="S30">
-        <v>0.05868362692233948</v>
+        <v>0.04613110059572437</v>
       </c>
       <c r="T30">
-        <v>0.08850791779153229</v>
+        <v>0.06468905849962006</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H31">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I31">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J31">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N31">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O31">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P31">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q31">
-        <v>4.711614184531</v>
+        <v>1.578712908935111</v>
       </c>
       <c r="R31">
-        <v>42.404527660779</v>
+        <v>14.208416180416</v>
       </c>
       <c r="S31">
-        <v>0.00661789745409572</v>
+        <v>0.0008472336970015001</v>
       </c>
       <c r="T31">
-        <v>0.009981256349322858</v>
+        <v>0.001188065090154366</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H32">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I32">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J32">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N32">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O32">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P32">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q32">
-        <v>7.346403453916</v>
+        <v>53.44759222219066</v>
       </c>
       <c r="R32">
-        <v>44.078420723496</v>
+        <v>320.685553333144</v>
       </c>
       <c r="S32">
-        <v>0.0103187024256041</v>
+        <v>0.02868323993421937</v>
       </c>
       <c r="T32">
-        <v>0.01037526040223876</v>
+        <v>0.02681476288378186</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H33">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I33">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J33">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>1.096305</v>
       </c>
       <c r="O33">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P33">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q33">
-        <v>0.7579428865400001</v>
+        <v>4.590650625178333</v>
       </c>
       <c r="R33">
-        <v>6.821485978860001</v>
+        <v>41.315855626605</v>
       </c>
       <c r="S33">
-        <v>0.001064600814653147</v>
+        <v>0.002463623296420356</v>
       </c>
       <c r="T33">
-        <v>0.001605654018433711</v>
+        <v>0.003454707767322036</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H34">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I34">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J34">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N34">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O34">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P34">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q34">
-        <v>1.296049461752</v>
+        <v>7.33303995614911</v>
       </c>
       <c r="R34">
-        <v>11.664445155768</v>
+        <v>65.997359605342</v>
       </c>
       <c r="S34">
-        <v>0.00182042121816145</v>
+        <v>0.003935356781556088</v>
       </c>
       <c r="T34">
-        <v>0.002745598729543751</v>
+        <v>0.005518501006294079</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H35">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I35">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J35">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N35">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O35">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P35">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q35">
-        <v>5.484976323478</v>
+        <v>41.30738873503366</v>
       </c>
       <c r="R35">
-        <v>32.909857940868</v>
+        <v>247.844332410202</v>
       </c>
       <c r="S35">
-        <v>0.007704156033423947</v>
+        <v>0.0221680658170251</v>
       </c>
       <c r="T35">
-        <v>0.007746383385173818</v>
+        <v>0.02072399874766015</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H36">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I36">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J36">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N36">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O36">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P36">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q36">
-        <v>6.955683361828001</v>
+        <v>195.0634011209476</v>
       </c>
       <c r="R36">
-        <v>62.60115025645201</v>
+        <v>1755.570610088529</v>
       </c>
       <c r="S36">
-        <v>0.009769899955490427</v>
+        <v>0.1046829259113759</v>
       </c>
       <c r="T36">
-        <v>0.01473517482544804</v>
+        <v>0.1467955420690751</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H37">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I37">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J37">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2731,28 +2731,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N37">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O37">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P37">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q37">
-        <v>0.7844095811026667</v>
+        <v>3.582491732198222</v>
       </c>
       <c r="R37">
-        <v>7.059686229924</v>
+        <v>32.242425589784</v>
       </c>
       <c r="S37">
-        <v>0.001101775732569742</v>
+        <v>0.001922583705732124</v>
       </c>
       <c r="T37">
-        <v>0.001661722035211596</v>
+        <v>0.002696014797055349</v>
       </c>
     </row>
   </sheetData>
